--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -114,11 +114,19 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>item.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>role.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemBean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>item.xlsx</t>
+    <t>RoleBean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -127,14 +135,6 @@
   </si>
   <si>
     <t>TbRole</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleBean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>role.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,6 +492,7 @@
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -598,30 +599,30 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -122,19 +122,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>TbItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbRole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemBean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RoleBean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbRole</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +163,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,11 +216,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +508,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,10 +626,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -612,11 +639,11 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -628,6 +655,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>RoleBean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbMenpai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenpaiBean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>menpai.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,6 +664,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
